--- a/시장분석용_정보/시장분석용_4372039000.xlsx
+++ b/시장분석용_정보/시장분석용_4372039000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>3028206191</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4372039000</v>
@@ -708,7 +612,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>153229084</v>
@@ -720,117 +624,69 @@
         <v>1627855</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>17.06</v>
       </c>
       <c r="R2">
-        <v>11.25</v>
+        <v>54</v>
       </c>
       <c r="S2">
-        <v>21.3</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="T2">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>40.55</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>26.22</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="X2">
-        <v>44.46</v>
+        <v>3.9</v>
       </c>
       <c r="Y2">
-        <v>45.56</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.98</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>19.53</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>17.06</v>
-      </c>
-      <c r="AH2">
-        <v>54</v>
-      </c>
-      <c r="AI2">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>6.3</v>
-      </c>
-      <c r="AN2">
-        <v>3.9</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>14.75</v>
-      </c>
-      <c r="AS2">
-        <v>56.6</v>
-      </c>
-      <c r="AT2">
-        <v>19.53</v>
-      </c>
-      <c r="AU2">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1414</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>3028206191</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4372039000</v>
@@ -854,7 +710,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>93777426</v>
@@ -866,52 +722,52 @@
         <v>1388152</v>
       </c>
       <c r="O3">
-        <v>86.27</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>13.73</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <v>17.07</v>
+        <v>42.77</v>
       </c>
       <c r="S3">
-        <v>23.7</v>
+        <v>21.38</v>
       </c>
       <c r="T3">
-        <v>15.27</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>9.91</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>20.32</v>
+        <v>6.31</v>
       </c>
       <c r="W3">
-        <v>13.73</v>
+        <v>5.42</v>
       </c>
       <c r="X3">
-        <v>37.63</v>
+        <v>10.39</v>
       </c>
       <c r="Y3">
-        <v>56.09</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>48.23</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>45.86</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -919,64 +775,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>13.73</v>
-      </c>
-      <c r="AH3">
-        <v>42.77</v>
-      </c>
-      <c r="AI3">
-        <v>21.38</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>6.31</v>
-      </c>
-      <c r="AM3">
-        <v>5.42</v>
-      </c>
-      <c r="AN3">
-        <v>10.39</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>5.91</v>
-      </c>
-      <c r="AS3">
-        <v>48.23</v>
-      </c>
-      <c r="AT3">
-        <v>45.86</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2742</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>3028206191</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4372039000</v>
@@ -1000,7 +808,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>165342185</v>
@@ -1012,117 +820,69 @@
         <v>1581341</v>
       </c>
       <c r="O4">
-        <v>86.53</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>11.35</v>
+        <v>51.02</v>
       </c>
       <c r="S4">
-        <v>36.36</v>
+        <v>11.24</v>
       </c>
       <c r="T4">
-        <v>12.81</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="V4">
-        <v>25.93</v>
+        <v>19.22</v>
       </c>
       <c r="W4">
-        <v>13.47</v>
+        <v>14.57</v>
       </c>
       <c r="X4">
-        <v>28.3</v>
+        <v>3.94</v>
       </c>
       <c r="Y4">
-        <v>41.18</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>30.52</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6.83</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>36.09</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>38.2</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>18.87</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>51.02</v>
-      </c>
-      <c r="AI4">
-        <v>11.24</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0.02</v>
-      </c>
-      <c r="AL4">
-        <v>19.22</v>
-      </c>
-      <c r="AM4">
-        <v>14.57</v>
-      </c>
-      <c r="AN4">
-        <v>3.94</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>6.83</v>
-      </c>
-      <c r="AS4">
-        <v>36.09</v>
-      </c>
-      <c r="AT4">
-        <v>38.2</v>
-      </c>
-      <c r="AU4">
-        <v>18.87</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>4064</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>3028206191</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4372039000</v>
@@ -1146,7 +906,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>170351095</v>
@@ -1158,40 +918,40 @@
         <v>2004383</v>
       </c>
       <c r="O5">
-        <v>97.36</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>7.2</v>
+        <v>67.72</v>
       </c>
       <c r="S5">
-        <v>19.25</v>
+        <v>12.1</v>
       </c>
       <c r="T5">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>30.83</v>
+        <v>0.03</v>
       </c>
       <c r="V5">
-        <v>37.16</v>
+        <v>15.61</v>
       </c>
       <c r="W5">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="X5">
-        <v>35.66</v>
+        <v>1.64</v>
       </c>
       <c r="Y5">
-        <v>26.45</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>37.89</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1200,75 +960,27 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>48.84</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>38.19</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>12.97</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>67.72</v>
-      </c>
-      <c r="AI5">
-        <v>12.1</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0.03</v>
-      </c>
-      <c r="AL5">
-        <v>15.61</v>
-      </c>
-      <c r="AM5">
-        <v>2.9</v>
-      </c>
-      <c r="AN5">
-        <v>1.64</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>48.84</v>
-      </c>
-      <c r="AT5">
-        <v>38.19</v>
-      </c>
-      <c r="AU5">
-        <v>12.97</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5394</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>3028206191</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4372039000</v>
@@ -1292,7 +1004,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>270951948</v>
@@ -1304,117 +1016,69 @@
         <v>2355264</v>
       </c>
       <c r="O6">
-        <v>58.02</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>41.98</v>
+        <v>11.9</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="R6">
-        <v>25.54</v>
+        <v>31.15</v>
       </c>
       <c r="S6">
-        <v>0.04</v>
+        <v>5.99</v>
       </c>
       <c r="T6">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3.9</v>
+        <v>1.93</v>
       </c>
       <c r="V6">
-        <v>24.07</v>
+        <v>7.26</v>
       </c>
       <c r="W6">
-        <v>41.98</v>
+        <v>23.62</v>
       </c>
       <c r="X6">
-        <v>43.81</v>
+        <v>10.8</v>
       </c>
       <c r="Y6">
-        <v>12.88</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>43.31</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>11.68</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>42.85</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>27.04</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="AF6">
-        <v>11.9</v>
-      </c>
-      <c r="AG6">
-        <v>7.35</v>
-      </c>
-      <c r="AH6">
-        <v>31.15</v>
-      </c>
-      <c r="AI6">
-        <v>5.99</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>1.93</v>
-      </c>
-      <c r="AL6">
-        <v>7.26</v>
-      </c>
-      <c r="AM6">
-        <v>23.62</v>
-      </c>
-      <c r="AN6">
-        <v>10.8</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>11.68</v>
-      </c>
-      <c r="AS6">
-        <v>42.85</v>
-      </c>
-      <c r="AT6">
-        <v>27.04</v>
-      </c>
-      <c r="AU6">
-        <v>4.36</v>
-      </c>
-      <c r="AV6">
         <v>14.07</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>6734</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>3028206191</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4372039000</v>
@@ -1438,7 +1102,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>262789241</v>
@@ -1450,117 +1114,69 @@
         <v>1547618</v>
       </c>
       <c r="O7">
-        <v>90.73999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="P7">
-        <v>9.26</v>
+        <v>26.09</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>12.39</v>
       </c>
       <c r="R7">
-        <v>14.11</v>
+        <v>12.42</v>
       </c>
       <c r="S7">
-        <v>35.68</v>
+        <v>5.22</v>
       </c>
       <c r="T7">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>27.12</v>
+        <v>13.21</v>
       </c>
       <c r="V7">
-        <v>1.72</v>
+        <v>10.01</v>
       </c>
       <c r="W7">
-        <v>9.26</v>
+        <v>19.52</v>
       </c>
       <c r="X7">
-        <v>39.21</v>
+        <v>1.13</v>
       </c>
       <c r="Y7">
-        <v>41.79</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>15.57</v>
       </c>
       <c r="AE7">
-        <v>0.01</v>
+        <v>11.52</v>
       </c>
       <c r="AF7">
-        <v>26.09</v>
-      </c>
-      <c r="AG7">
-        <v>12.39</v>
-      </c>
-      <c r="AH7">
-        <v>12.42</v>
-      </c>
-      <c r="AI7">
-        <v>5.22</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>13.21</v>
-      </c>
-      <c r="AL7">
-        <v>10.01</v>
-      </c>
-      <c r="AM7">
-        <v>19.52</v>
-      </c>
-      <c r="AN7">
-        <v>1.13</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>4.22</v>
-      </c>
-      <c r="AS7">
-        <v>68.68000000000001</v>
-      </c>
-      <c r="AT7">
-        <v>15.57</v>
-      </c>
-      <c r="AU7">
-        <v>11.52</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>8075</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>3028206191</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4372039000</v>
@@ -1584,7 +1200,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>195813272</v>
@@ -1596,117 +1212,69 @@
         <v>915901</v>
       </c>
       <c r="O8">
-        <v>84.73</v>
+        <v>0.03</v>
       </c>
       <c r="P8">
-        <v>15.27</v>
+        <v>2.93</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>7.41</v>
       </c>
       <c r="R8">
-        <v>4.08</v>
+        <v>39.18</v>
       </c>
       <c r="S8">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>29.11</v>
+        <v>15.39</v>
       </c>
       <c r="V8">
-        <v>45.56</v>
+        <v>13.94</v>
       </c>
       <c r="W8">
-        <v>15.27</v>
+        <v>19.42</v>
       </c>
       <c r="X8">
-        <v>48.92</v>
+        <v>1.72</v>
       </c>
       <c r="Y8">
-        <v>26.66</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>24.43</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>66.12</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AE8">
-        <v>0.03</v>
+        <v>18.39</v>
       </c>
       <c r="AF8">
         <v>2.93</v>
       </c>
-      <c r="AG8">
-        <v>7.41</v>
-      </c>
-      <c r="AH8">
-        <v>39.18</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>15.39</v>
-      </c>
-      <c r="AL8">
-        <v>13.94</v>
-      </c>
-      <c r="AM8">
-        <v>19.42</v>
-      </c>
-      <c r="AN8">
-        <v>1.72</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>2.96</v>
-      </c>
-      <c r="AS8">
-        <v>66.12</v>
-      </c>
-      <c r="AT8">
-        <v>9.6</v>
-      </c>
-      <c r="AU8">
-        <v>18.39</v>
-      </c>
-      <c r="AV8">
-        <v>2.93</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>9411</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>3028206191</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4372039000</v>
@@ -1730,7 +1298,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>199010547</v>
@@ -1742,117 +1310,69 @@
         <v>1210822</v>
       </c>
       <c r="O9">
-        <v>95.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4.43</v>
+        <v>2.66</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>16.72</v>
       </c>
       <c r="R9">
-        <v>38.03</v>
+        <v>23.36</v>
       </c>
       <c r="S9">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>28.43</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>6.53</v>
+        <v>6.02</v>
       </c>
       <c r="V9">
-        <v>16.4</v>
+        <v>14.75</v>
       </c>
       <c r="W9">
-        <v>3.79</v>
+        <v>35</v>
       </c>
       <c r="X9">
-        <v>5.97</v>
+        <v>1.49</v>
       </c>
       <c r="Y9">
-        <v>86.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>7.27</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>33.93</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>43.71</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="AF9">
-        <v>2.66</v>
-      </c>
-      <c r="AG9">
-        <v>16.72</v>
-      </c>
-      <c r="AH9">
-        <v>23.36</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>6.02</v>
-      </c>
-      <c r="AL9">
-        <v>14.75</v>
-      </c>
-      <c r="AM9">
-        <v>35</v>
-      </c>
-      <c r="AN9">
-        <v>1.49</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>2.66</v>
-      </c>
-      <c r="AS9">
-        <v>33.93</v>
-      </c>
-      <c r="AT9">
-        <v>43.71</v>
-      </c>
-      <c r="AU9">
-        <v>19.7</v>
-      </c>
-      <c r="AV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>10750</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>3028206191</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4372039000</v>
@@ -1876,7 +1396,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>327046226</v>
@@ -1888,117 +1408,69 @@
         <v>1962903</v>
       </c>
       <c r="O10">
-        <v>75.59</v>
+        <v>6.61</v>
       </c>
       <c r="P10">
-        <v>24.41</v>
+        <v>1.64</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>19.19</v>
       </c>
       <c r="R10">
-        <v>22.96</v>
+        <v>5.23</v>
       </c>
       <c r="S10">
-        <v>18.98</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>7.57</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>3.96</v>
+        <v>16.21</v>
       </c>
       <c r="V10">
-        <v>22.11</v>
+        <v>32.87</v>
       </c>
       <c r="W10">
-        <v>24.41</v>
+        <v>17.29</v>
       </c>
       <c r="X10">
-        <v>24.58</v>
+        <v>0.95</v>
       </c>
       <c r="Y10">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>27.82</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>45.81</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>27.88</v>
       </c>
       <c r="AE10">
-        <v>6.61</v>
+        <v>17.95</v>
       </c>
       <c r="AF10">
-        <v>1.64</v>
-      </c>
-      <c r="AG10">
-        <v>19.19</v>
-      </c>
-      <c r="AH10">
-        <v>5.23</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>16.21</v>
-      </c>
-      <c r="AL10">
-        <v>32.87</v>
-      </c>
-      <c r="AM10">
-        <v>17.29</v>
-      </c>
-      <c r="AN10">
-        <v>0.95</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>6.49</v>
-      </c>
-      <c r="AS10">
-        <v>45.81</v>
-      </c>
-      <c r="AT10">
-        <v>27.88</v>
-      </c>
-      <c r="AU10">
-        <v>17.95</v>
-      </c>
-      <c r="AV10">
         <v>1.87</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>12096</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>3028206191</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4372039000</v>
@@ -2022,7 +1494,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>163053464</v>
@@ -2034,117 +1506,69 @@
         <v>2141269</v>
       </c>
       <c r="O11">
-        <v>97.65000000000001</v>
+        <v>37.13</v>
       </c>
       <c r="P11">
-        <v>2.35</v>
+        <v>3.34</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="R11">
-        <v>43.01</v>
+        <v>21.03</v>
       </c>
       <c r="S11">
-        <v>17.69</v>
+        <v>3.1</v>
       </c>
       <c r="T11">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>26.88</v>
+        <v>22.43</v>
       </c>
       <c r="V11">
-        <v>0.82</v>
+        <v>2.34</v>
       </c>
       <c r="W11">
-        <v>2.35</v>
+        <v>9.82</v>
       </c>
       <c r="X11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>79.77</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>73.53</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>20.02</v>
       </c>
       <c r="AE11">
-        <v>37.13</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>3.34</v>
-      </c>
-      <c r="AG11">
-        <v>0.82</v>
-      </c>
-      <c r="AH11">
-        <v>21.03</v>
-      </c>
-      <c r="AI11">
-        <v>3.1</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>22.43</v>
-      </c>
-      <c r="AL11">
-        <v>2.34</v>
-      </c>
-      <c r="AM11">
-        <v>9.82</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>6.45</v>
-      </c>
-      <c r="AS11">
-        <v>73.53</v>
-      </c>
-      <c r="AT11">
-        <v>20.02</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>13443</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>3028206191</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4372039000</v>
@@ -2168,7 +1592,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>152305541</v>
@@ -2180,117 +1604,69 @@
         <v>1102275</v>
       </c>
       <c r="O12">
-        <v>96.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>3.82</v>
+        <v>3.49</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>14.59</v>
       </c>
       <c r="R12">
-        <v>46.78</v>
+        <v>36.37</v>
       </c>
       <c r="S12">
-        <v>18.93</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.58</v>
+        <v>23.39</v>
       </c>
       <c r="V12">
-        <v>22.95</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W12">
-        <v>3.82</v>
+        <v>10.38</v>
       </c>
       <c r="X12">
-        <v>0.87</v>
+        <v>2.07</v>
       </c>
       <c r="Y12">
-        <v>29.01</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>70.11</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AF12">
-        <v>3.49</v>
-      </c>
-      <c r="AG12">
-        <v>14.59</v>
-      </c>
-      <c r="AH12">
-        <v>36.37</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>23.39</v>
-      </c>
-      <c r="AL12">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="AM12">
-        <v>10.38</v>
-      </c>
-      <c r="AN12">
-        <v>2.07</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>3.49</v>
-      </c>
-      <c r="AS12">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="AT12">
-        <v>11</v>
-      </c>
-      <c r="AU12">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AV12">
         <v>4.36</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>14792</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>3028206191</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4372039000</v>
@@ -2314,7 +1690,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>229469483</v>
@@ -2326,117 +1702,69 @@
         <v>1737781</v>
       </c>
       <c r="O13">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>16.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="R13">
-        <v>31.82</v>
+        <v>28.66</v>
       </c>
       <c r="S13">
-        <v>35.13</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>9.08</v>
+        <v>2.3</v>
       </c>
       <c r="V13">
-        <v>3.47</v>
+        <v>33.14</v>
       </c>
       <c r="W13">
-        <v>16.4</v>
+        <v>12.66</v>
       </c>
       <c r="X13">
-        <v>54.26</v>
+        <v>1.25</v>
       </c>
       <c r="Y13">
-        <v>19.76</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>25.98</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>70.81</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>14.38</v>
       </c>
       <c r="AF13">
-        <v>2.3</v>
-      </c>
-      <c r="AG13">
-        <v>19.7</v>
-      </c>
-      <c r="AH13">
-        <v>28.66</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>2.3</v>
-      </c>
-      <c r="AL13">
-        <v>33.14</v>
-      </c>
-      <c r="AM13">
-        <v>12.66</v>
-      </c>
-      <c r="AN13">
-        <v>1.25</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>2.3</v>
-      </c>
-      <c r="AS13">
-        <v>70.81</v>
-      </c>
-      <c r="AT13">
-        <v>3.65</v>
-      </c>
-      <c r="AU13">
-        <v>14.38</v>
-      </c>
-      <c r="AV13">
         <v>8.869999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>16138</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2448,10 +1776,10 @@
         <v>3028206191</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4372039000</v>
@@ -2460,7 +1788,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>129056090</v>
@@ -2472,117 +1800,69 @@
         <v>1442263</v>
       </c>
       <c r="O14">
-        <v>93.37</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>6.63</v>
+        <v>4.08</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="R14">
-        <v>34.21</v>
+        <v>15.52</v>
       </c>
       <c r="S14">
-        <v>10.31</v>
+        <v>13.2</v>
       </c>
       <c r="T14">
-        <v>44.55</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.76</v>
+        <v>8.16</v>
       </c>
       <c r="V14">
+        <v>29.1</v>
+      </c>
+      <c r="W14">
+        <v>26.37</v>
+      </c>
+      <c r="X14">
         <v>3.55</v>
       </c>
-      <c r="W14">
-        <v>6.63</v>
-      </c>
-      <c r="X14">
-        <v>65.33</v>
-      </c>
       <c r="Y14">
-        <v>33.91</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>58.65</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>32.77</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>4.08</v>
-      </c>
-      <c r="AG14">
-        <v>0.03</v>
-      </c>
-      <c r="AH14">
-        <v>15.52</v>
-      </c>
-      <c r="AI14">
-        <v>13.2</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>8.16</v>
-      </c>
-      <c r="AL14">
-        <v>29.1</v>
-      </c>
-      <c r="AM14">
-        <v>26.37</v>
-      </c>
-      <c r="AN14">
-        <v>3.55</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>4.11</v>
-      </c>
-      <c r="AS14">
-        <v>58.65</v>
-      </c>
-      <c r="AT14">
-        <v>32.77</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
         <v>4.47</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>17488</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2594,10 +1874,10 @@
         <v>3028206191</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4372039000</v>
@@ -2606,7 +1886,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>119485525</v>
@@ -2618,117 +1898,69 @@
         <v>1815697</v>
       </c>
       <c r="O15">
-        <v>85.94</v>
+        <v>0.36</v>
       </c>
       <c r="P15">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>11.46</v>
       </c>
       <c r="R15">
-        <v>18.72</v>
+        <v>41.92</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="T15">
-        <v>21.27</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>48.36</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>15.73</v>
       </c>
       <c r="W15">
-        <v>11.65</v>
+        <v>24.93</v>
       </c>
       <c r="X15">
-        <v>52.82</v>
+        <v>2.41</v>
       </c>
       <c r="Y15">
-        <v>31.44</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>15.74</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>56.56</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>27.36</v>
       </c>
       <c r="AE15">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>11.46</v>
-      </c>
-      <c r="AH15">
-        <v>41.92</v>
-      </c>
-      <c r="AI15">
-        <v>3.17</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>15.73</v>
-      </c>
-      <c r="AM15">
-        <v>24.93</v>
-      </c>
-      <c r="AN15">
-        <v>2.41</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0.36</v>
-      </c>
-      <c r="AS15">
-        <v>56.56</v>
-      </c>
-      <c r="AT15">
-        <v>27.36</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
         <v>15.72</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>18840</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2740,10 +1972,10 @@
         <v>3028206191</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4372039000</v>
@@ -2752,7 +1984,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>187769142</v>
@@ -2764,117 +1996,69 @@
         <v>2421953</v>
       </c>
       <c r="O16">
-        <v>98.59</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>5.67</v>
+        <v>25.59</v>
       </c>
       <c r="S16">
-        <v>27.4</v>
+        <v>14.5</v>
       </c>
       <c r="T16">
-        <v>38.55</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>26.96</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>23.63</v>
       </c>
       <c r="W16">
-        <v>1.41</v>
+        <v>20.83</v>
       </c>
       <c r="X16">
-        <v>17.97</v>
+        <v>15.45</v>
       </c>
       <c r="Y16">
-        <v>43.45</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>24.52</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>67.41</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>19.36</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>25.59</v>
-      </c>
-      <c r="AI16">
-        <v>14.5</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>23.63</v>
-      </c>
-      <c r="AM16">
-        <v>20.83</v>
-      </c>
-      <c r="AN16">
-        <v>15.45</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>67.41</v>
-      </c>
-      <c r="AT16">
-        <v>19.36</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
         <v>13.23</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>20188</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2886,10 +2070,10 @@
         <v>3028206191</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4372039000</v>
@@ -2898,7 +2082,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>281770334</v>
@@ -2910,117 +2094,69 @@
         <v>2857009</v>
       </c>
       <c r="O17">
-        <v>84.88</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>15.12</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="R17">
-        <v>6.27</v>
+        <v>30.33</v>
       </c>
       <c r="S17">
+        <v>11.61</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>29.79</v>
+      </c>
+      <c r="W17">
+        <v>11.57</v>
+      </c>
+      <c r="X17">
+        <v>13.01</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>3.68</v>
+      </c>
+      <c r="AC17">
+        <v>64.88</v>
+      </c>
+      <c r="AD17">
+        <v>14.37</v>
+      </c>
+      <c r="AE17">
         <v>1.36</v>
       </c>
-      <c r="T17">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U17">
-        <v>61.48</v>
-      </c>
-      <c r="V17">
+      <c r="AF17">
         <v>15.7</v>
       </c>
-      <c r="W17">
-        <v>15.12</v>
-      </c>
-      <c r="X17">
-        <v>25.07</v>
-      </c>
-      <c r="Y17">
-        <v>37.95</v>
-      </c>
-      <c r="Z17">
-        <v>36.97</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>3.68</v>
-      </c>
-      <c r="AH17">
-        <v>30.33</v>
-      </c>
-      <c r="AI17">
-        <v>11.61</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>29.79</v>
-      </c>
-      <c r="AM17">
-        <v>11.57</v>
-      </c>
-      <c r="AN17">
-        <v>13.01</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>3.68</v>
-      </c>
-      <c r="AS17">
-        <v>64.88</v>
-      </c>
-      <c r="AT17">
-        <v>14.37</v>
-      </c>
-      <c r="AU17">
-        <v>1.36</v>
-      </c>
-      <c r="AV17">
-        <v>15.7</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>21547</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3032,10 +2168,10 @@
         <v>3028206191</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4372039000</v>
@@ -3044,7 +2180,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>189650088</v>
@@ -3056,117 +2192,69 @@
         <v>2218083</v>
       </c>
       <c r="O18">
-        <v>70.23999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="P18">
-        <v>29.76</v>
+        <v>5.61</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R18">
-        <v>31.14</v>
+        <v>11.35</v>
       </c>
       <c r="S18">
-        <v>23.93</v>
+        <v>28.35</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>12.77</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>29.76</v>
+        <v>29.84</v>
       </c>
       <c r="X18">
-        <v>76.81</v>
+        <v>22.44</v>
       </c>
       <c r="Y18">
-        <v>21.66</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>16.73</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>36.97</v>
       </c>
       <c r="AE18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>5.61</v>
-      </c>
-      <c r="AG18">
-        <v>2.4</v>
-      </c>
-      <c r="AH18">
-        <v>11.35</v>
-      </c>
-      <c r="AI18">
-        <v>28.35</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>29.84</v>
-      </c>
-      <c r="AN18">
-        <v>22.44</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>16.73</v>
-      </c>
-      <c r="AS18">
-        <v>46.3</v>
-      </c>
-      <c r="AT18">
-        <v>36.97</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>22910</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3178,10 +2266,10 @@
         <v>3028206191</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4372039000</v>
@@ -3190,7 +2278,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>77100026</v>
@@ -3202,117 +2290,69 @@
         <v>718732</v>
       </c>
       <c r="O19">
-        <v>90.95</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>9.050000000000001</v>
+        <v>22.79</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="R19">
-        <v>11.6</v>
+        <v>5.52</v>
       </c>
       <c r="S19">
-        <v>13.63</v>
+        <v>46.71</v>
       </c>
       <c r="T19">
-        <v>59.64</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0.02</v>
+        <v>2.38</v>
       </c>
       <c r="V19">
-        <v>6.07</v>
+        <v>2.29</v>
       </c>
       <c r="W19">
-        <v>9.050000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="X19">
-        <v>18.62</v>
+        <v>3.73</v>
       </c>
       <c r="Y19">
-        <v>44.76</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>36.62</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>87.98</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AF19">
-        <v>22.79</v>
-      </c>
-      <c r="AG19">
-        <v>7.75</v>
-      </c>
-      <c r="AH19">
-        <v>5.52</v>
-      </c>
-      <c r="AI19">
-        <v>46.71</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>2.38</v>
-      </c>
-      <c r="AL19">
-        <v>2.29</v>
-      </c>
-      <c r="AM19">
-        <v>8.83</v>
-      </c>
-      <c r="AN19">
-        <v>3.73</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>6</v>
-      </c>
-      <c r="AS19">
-        <v>87.98</v>
-      </c>
-      <c r="AT19">
-        <v>3.73</v>
-      </c>
-      <c r="AU19">
-        <v>2.29</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>24281</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3324,10 +2364,10 @@
         <v>3028206191</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4372039000</v>
@@ -3336,7 +2376,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>169450087</v>
@@ -3348,117 +2388,69 @@
         <v>1308890</v>
       </c>
       <c r="O20">
-        <v>90.37</v>
+        <v>0.01</v>
       </c>
       <c r="P20">
-        <v>9.630000000000001</v>
+        <v>34.58</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="R20">
-        <v>12.42</v>
+        <v>11.84</v>
       </c>
       <c r="S20">
-        <v>20.6</v>
+        <v>12.17</v>
       </c>
       <c r="T20">
-        <v>1.42</v>
+        <v>4.55</v>
       </c>
       <c r="U20">
-        <v>44.02</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>11.92</v>
+        <v>12.56</v>
       </c>
       <c r="W20">
-        <v>9.630000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="X20">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="Y20">
-        <v>54.93</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>33.79</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>65.91</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>15.86</v>
       </c>
       <c r="AE20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>34.58</v>
-      </c>
-      <c r="AG20">
-        <v>4.08</v>
-      </c>
-      <c r="AH20">
-        <v>11.84</v>
-      </c>
-      <c r="AI20">
-        <v>12.17</v>
-      </c>
-      <c r="AJ20">
-        <v>4.55</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>12.56</v>
-      </c>
-      <c r="AM20">
-        <v>8.93</v>
-      </c>
-      <c r="AN20">
-        <v>11.28</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0.01</v>
-      </c>
-      <c r="AS20">
-        <v>65.91</v>
-      </c>
-      <c r="AT20">
-        <v>15.86</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
         <v>18.23</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>25650</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202108</v>
@@ -3470,10 +2462,10 @@
         <v>3028206191</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4372039000</v>
@@ -3482,7 +2474,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>168935755</v>
@@ -3494,117 +2486,69 @@
         <v>2151665</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>17.37</v>
       </c>
       <c r="R21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>33.48</v>
+        <v>27.5</v>
       </c>
       <c r="T21">
-        <v>13.7</v>
+        <v>13.61</v>
       </c>
       <c r="U21">
-        <v>16.79</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.02</v>
+        <v>20.3</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>30.08</v>
+        <v>21.21</v>
       </c>
       <c r="Y21">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>27.42</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.93</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>73.41</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AE21">
-        <v>0.01</v>
+        <v>2.26</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>17.37</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>27.5</v>
-      </c>
-      <c r="AJ21">
-        <v>13.61</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>20.3</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>21.21</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>7.93</v>
-      </c>
-      <c r="AS21">
-        <v>73.41</v>
-      </c>
-      <c r="AT21">
-        <v>9.6</v>
-      </c>
-      <c r="AU21">
-        <v>2.26</v>
-      </c>
-      <c r="AV21">
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>27021</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202109</v>
@@ -3616,10 +2560,10 @@
         <v>3028206191</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4372039000</v>
@@ -3628,7 +2572,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>98676447</v>
@@ -3640,117 +2584,69 @@
         <v>1599499</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>37.36</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>18.23</v>
       </c>
       <c r="R22">
         <v>3.95</v>
       </c>
       <c r="S22">
-        <v>14.02</v>
+        <v>17.02</v>
       </c>
       <c r="T22">
-        <v>43.38</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1.14</v>
+        <v>0.1</v>
       </c>
       <c r="V22">
-        <v>37.52</v>
+        <v>10.58</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="X22">
-        <v>5.21</v>
+        <v>2.91</v>
       </c>
       <c r="Y22">
-        <v>53.18</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>41.61</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>22.18</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>50.43</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>24.47</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AF22">
-        <v>37.36</v>
-      </c>
-      <c r="AG22">
-        <v>18.23</v>
-      </c>
-      <c r="AH22">
-        <v>3.95</v>
-      </c>
-      <c r="AI22">
-        <v>17.02</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0.1</v>
-      </c>
-      <c r="AL22">
-        <v>10.58</v>
-      </c>
-      <c r="AM22">
-        <v>9.85</v>
-      </c>
-      <c r="AN22">
-        <v>2.91</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>22.18</v>
-      </c>
-      <c r="AS22">
-        <v>50.43</v>
-      </c>
-      <c r="AT22">
-        <v>24.47</v>
-      </c>
-      <c r="AU22">
-        <v>2.91</v>
-      </c>
-      <c r="AV22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>28394</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202110</v>
@@ -3762,10 +2658,10 @@
         <v>3028206191</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4372039000</v>
@@ -3774,7 +2670,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>140984608</v>
@@ -3786,117 +2682,69 @@
         <v>1840078</v>
       </c>
       <c r="O23">
-        <v>84.19</v>
+        <v>0.01</v>
       </c>
       <c r="P23">
-        <v>15.81</v>
+        <v>28.81</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>8.08</v>
+        <v>3.7</v>
       </c>
       <c r="S23">
-        <v>7.51</v>
+        <v>21.57</v>
       </c>
       <c r="T23">
-        <v>11.85</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>41.22</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>15.81</v>
+        <v>12.85</v>
       </c>
       <c r="X23">
-        <v>40.73</v>
+        <v>33.06</v>
       </c>
       <c r="Y23">
-        <v>38.37</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>84.31</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.01</v>
+        <v>1.97</v>
       </c>
       <c r="AF23">
-        <v>28.81</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>3.7</v>
-      </c>
-      <c r="AI23">
-        <v>21.57</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>12.85</v>
-      </c>
-      <c r="AN23">
-        <v>33.06</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>5.45</v>
-      </c>
-      <c r="AS23">
-        <v>84.31</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>1.97</v>
-      </c>
-      <c r="AV23">
         <v>8.27</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>29775</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202111</v>
@@ -3908,10 +2756,10 @@
         <v>3028206191</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4372039000</v>
@@ -3920,7 +2768,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>154064798</v>
@@ -3932,117 +2780,69 @@
         <v>1191783</v>
       </c>
       <c r="O24">
-        <v>90.06999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="P24">
-        <v>9.93</v>
+        <v>4.8</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>12.77</v>
       </c>
       <c r="R24">
-        <v>17.98</v>
+        <v>21.75</v>
       </c>
       <c r="S24">
-        <v>31.06</v>
+        <v>5.17</v>
       </c>
       <c r="T24">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>14.84</v>
+        <v>25.03</v>
       </c>
       <c r="V24">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="W24">
-        <v>9.93</v>
+        <v>25.7</v>
       </c>
       <c r="X24">
-        <v>14.6</v>
+        <v>1.98</v>
       </c>
       <c r="Y24">
-        <v>52.42</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>32.97</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>63.91</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>22.08</v>
       </c>
       <c r="AE24">
-        <v>0.01</v>
+        <v>5.95</v>
       </c>
       <c r="AF24">
-        <v>4.8</v>
-      </c>
-      <c r="AG24">
-        <v>12.77</v>
-      </c>
-      <c r="AH24">
-        <v>21.75</v>
-      </c>
-      <c r="AI24">
-        <v>5.17</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>25.03</v>
-      </c>
-      <c r="AL24">
-        <v>2.8</v>
-      </c>
-      <c r="AM24">
-        <v>25.7</v>
-      </c>
-      <c r="AN24">
-        <v>1.98</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0.01</v>
-      </c>
-      <c r="AS24">
-        <v>63.91</v>
-      </c>
-      <c r="AT24">
-        <v>22.08</v>
-      </c>
-      <c r="AU24">
-        <v>5.95</v>
-      </c>
-      <c r="AV24">
         <v>8.050000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>31156</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202112</v>
@@ -4054,10 +2854,10 @@
         <v>3028206191</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4372039000</v>
@@ -4066,7 +2866,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>139381180</v>
@@ -4078,7 +2878,7 @@
         <v>1879331</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4087,31 +2887,31 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>3.33</v>
+        <v>4.27</v>
       </c>
       <c r="S25">
-        <v>19.51</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>58.02</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>8.59</v>
+        <v>43.09</v>
       </c>
       <c r="V25">
-        <v>10.55</v>
+        <v>18.91</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="X25">
-        <v>13.82</v>
+        <v>21.62</v>
       </c>
       <c r="Y25">
-        <v>74.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -4120,75 +2920,27 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>49.45</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>44.18</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>4.27</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>43.09</v>
-      </c>
-      <c r="AL25">
-        <v>18.91</v>
-      </c>
-      <c r="AM25">
-        <v>12.1</v>
-      </c>
-      <c r="AN25">
-        <v>21.62</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>49.45</v>
-      </c>
-      <c r="AT25">
-        <v>44.18</v>
-      </c>
-      <c r="AU25">
-        <v>6.37</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>32542</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>202201</v>
@@ -4200,10 +2952,10 @@
         <v>3028206191</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>4372039000</v>
@@ -4212,7 +2964,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L26">
         <v>115722952</v>
@@ -4224,117 +2976,69 @@
         <v>1721805</v>
       </c>
       <c r="O26">
-        <v>99.11</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="R26">
-        <v>37.92</v>
+        <v>0.11</v>
       </c>
       <c r="S26">
-        <v>37.88</v>
+        <v>0.02</v>
       </c>
       <c r="T26">
-        <v>20.81</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>2.5</v>
+        <v>42.52</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>23.44</v>
       </c>
       <c r="W26">
-        <v>0.89</v>
+        <v>15.07</v>
       </c>
       <c r="X26">
-        <v>23.23</v>
+        <v>13.48</v>
       </c>
       <c r="Y26">
-        <v>59.21</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>17.56</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>42.52</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>5.36</v>
-      </c>
-      <c r="AH26">
-        <v>0.11</v>
-      </c>
-      <c r="AI26">
-        <v>0.02</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>42.52</v>
-      </c>
-      <c r="AL26">
-        <v>23.44</v>
-      </c>
-      <c r="AM26">
-        <v>15.07</v>
-      </c>
-      <c r="AN26">
-        <v>13.48</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0.02</v>
-      </c>
-      <c r="AS26">
-        <v>34.53</v>
-      </c>
-      <c r="AT26">
-        <v>42.52</v>
-      </c>
-      <c r="AU26">
-        <v>5.95</v>
-      </c>
-      <c r="AV26">
         <v>16.97</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>33928</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>202202</v>
@@ -4346,10 +3050,10 @@
         <v>3028206191</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>4372039000</v>
@@ -4358,7 +3062,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L27">
         <v>34519480</v>
@@ -4370,117 +3074,69 @@
         <v>514381</v>
       </c>
       <c r="O27">
-        <v>91.64</v>
+        <v>0.48</v>
       </c>
       <c r="P27">
-        <v>8.359999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>23.85</v>
       </c>
       <c r="S27">
-        <v>23.25</v>
+        <v>0.19</v>
       </c>
       <c r="T27">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>41.57</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>23.8</v>
+        <v>11.93</v>
       </c>
       <c r="W27">
-        <v>8.359999999999999</v>
+        <v>41.43</v>
       </c>
       <c r="X27">
-        <v>13.86</v>
+        <v>19.21</v>
       </c>
       <c r="Y27">
-        <v>70.56</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>15.58</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>40.73</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="AE27">
-        <v>0.48</v>
+        <v>31.72</v>
       </c>
       <c r="AF27">
-        <v>2.92</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>23.85</v>
-      </c>
-      <c r="AI27">
-        <v>0.19</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>11.93</v>
-      </c>
-      <c r="AM27">
-        <v>41.43</v>
-      </c>
-      <c r="AN27">
-        <v>19.21</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0.67</v>
-      </c>
-      <c r="AS27">
-        <v>40.73</v>
-      </c>
-      <c r="AT27">
-        <v>11.93</v>
-      </c>
-      <c r="AU27">
-        <v>31.72</v>
-      </c>
-      <c r="AV27">
         <v>14.95</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>35310</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4492,10 +3148,10 @@
         <v>3028206191</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>4372039000</v>
@@ -4504,7 +3160,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>67058091</v>
@@ -4516,7 +3172,7 @@
         <v>1142511</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -4525,108 +3181,60 @@
         <v>0</v>
       </c>
       <c r="R28">
+        <v>20.48</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>37.9</v>
+      </c>
+      <c r="X28">
+        <v>41.62</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>25.91</v>
+      </c>
+      <c r="AD28">
+        <v>33.26</v>
+      </c>
+      <c r="AE28">
+        <v>23.36</v>
+      </c>
+      <c r="AF28">
         <v>17.46</v>
       </c>
-      <c r="S28">
-        <v>5.32</v>
-      </c>
-      <c r="T28">
-        <v>20.52</v>
-      </c>
-      <c r="U28">
-        <v>36.26</v>
-      </c>
-      <c r="V28">
-        <v>20.44</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>5.32</v>
-      </c>
-      <c r="Y28">
-        <v>22.69</v>
-      </c>
-      <c r="Z28">
-        <v>71.98999999999999</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>20.48</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>37.9</v>
-      </c>
-      <c r="AN28">
-        <v>41.62</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>25.91</v>
-      </c>
-      <c r="AT28">
-        <v>33.26</v>
-      </c>
-      <c r="AU28">
-        <v>23.36</v>
-      </c>
-      <c r="AV28">
-        <v>17.46</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>36690</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4638,10 +3246,10 @@
         <v>3028206191</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>4372039000</v>
@@ -4650,7 +3258,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>50975380</v>
@@ -4662,7 +3270,7 @@
         <v>607155</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -4671,108 +3279,60 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1.31</v>
+        <v>0.29</v>
       </c>
       <c r="S29">
-        <v>15</v>
+        <v>11.09</v>
       </c>
       <c r="T29">
-        <v>9.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>70.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>27.66</v>
       </c>
       <c r="X29">
-        <v>7.75</v>
+        <v>60.96</v>
       </c>
       <c r="Y29">
-        <v>37.26</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>54.98</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>68.94</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>17.89</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0.29</v>
-      </c>
-      <c r="AI29">
-        <v>11.09</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>27.66</v>
-      </c>
-      <c r="AN29">
-        <v>60.96</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0.18</v>
-      </c>
-      <c r="AS29">
-        <v>68.94</v>
-      </c>
-      <c r="AT29">
-        <v>12.99</v>
-      </c>
-      <c r="AU29">
-        <v>17.89</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>38071</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4784,10 +3344,10 @@
         <v>3028206191</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>4372039000</v>
@@ -4796,7 +3356,7 @@
         <v>273.0242424242425</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <v>61702314</v>
@@ -4808,105 +3368,57 @@
         <v>771953</v>
       </c>
       <c r="O30">
-        <v>96.03</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>3.97</v>
+        <v>0.03</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="R30">
-        <v>38.7</v>
+        <v>4.01</v>
       </c>
       <c r="S30">
-        <v>12.26</v>
+        <v>5.16</v>
       </c>
       <c r="T30">
-        <v>35.71</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>9.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>3.97</v>
+        <v>23.54</v>
       </c>
       <c r="X30">
-        <v>24.44</v>
+        <v>4.75</v>
       </c>
       <c r="Y30">
-        <v>56.58</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>18.97</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>52.98</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="AF30">
-        <v>0.03</v>
-      </c>
-      <c r="AG30">
-        <v>62.5</v>
-      </c>
-      <c r="AH30">
-        <v>4.01</v>
-      </c>
-      <c r="AI30">
-        <v>5.16</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>23.54</v>
-      </c>
-      <c r="AN30">
-        <v>4.75</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0.06</v>
-      </c>
-      <c r="AS30">
-        <v>52.98</v>
-      </c>
-      <c r="AT30">
-        <v>18.75</v>
-      </c>
-      <c r="AU30">
-        <v>21.42</v>
-      </c>
-      <c r="AV30">
         <v>6.79</v>
       </c>
     </row>
